--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Login</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>strawberry</t>
+  </si>
+  <si>
+    <t>wattermelon</t>
+  </si>
+  <si>
+    <t>cherry</t>
   </si>
 </sst>
 </file>
@@ -351,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,6 +397,22 @@
         <v>3333</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
